--- a/data/남북한발전전력량.xlsx
+++ b/data/남북한발전전력량.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\정현희\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\socia\Documents\pandas\examples\part1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41D052FA-11C2-4599-A56F-8B4563A64B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F5ED41-6BA0-44AB-937D-E3A9605451E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44145" yWindow="915" windowWidth="23715" windowHeight="12000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18510" windowHeight="7740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="computer" sheetId="2" r:id="rId1"/>
-    <sheet name="data" sheetId="1" r:id="rId2"/>
+    <sheet name="데이터" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
   <si>
     <t>발전 전력별</t>
   </si>
@@ -136,52 +135,13 @@
   <si>
     <t>전력량 (억㎾h)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>algol</t>
-  </si>
-  <si>
-    <t>basic</t>
-  </si>
-  <si>
-    <t>c++</t>
-  </si>
-  <si>
-    <t>Jerry</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>Riah</t>
-  </si>
-  <si>
-    <t>A+</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>C+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -195,20 +155,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -295,13 +241,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -313,17 +258,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{70FB4555-7DC0-4EA4-99FF-BFC3D47F6978}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -634,97 +574,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB797DBA-C092-49E4-971E-7FC47360C896}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="29" width="13.625" customWidth="1"/>
+    <col min="3" max="29" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
@@ -813,7 +677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -902,7 +766,7 @@
         <v>5404</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -991,7 +855,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
@@ -1080,7 +944,7 @@
         <v>3523</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
@@ -1169,7 +1033,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -1258,7 +1122,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
@@ -1347,7 +1211,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
@@ -1436,7 +1300,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
@@ -1525,7 +1389,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
